--- a/documentation/ESS_BI_BCM_register_map.xlsx
+++ b/documentation/ESS_BI_BCM_register_map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="297">
   <si>
     <t xml:space="preserve">BCM Address map segments table by function</t>
   </si>
@@ -420,10 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">#define BCM_MPS_RESET_REG                               0x430  // AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsl: changed description to how this register setting is actually 
-implemented in the BCM core</t>
   </si>
   <si>
     <t xml:space="preserve">0x431</t>
@@ -13855,10 +13851,10 @@
   <dimension ref="1:82"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
       <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -29558,46 +29554,44 @@
       </c>
     </row>
     <row r="27" s="26" customFormat="true" ht="76.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="28"/>
       <c r="H28" s="0"/>
       <c r="I28" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -30617,16 +30611,16 @@
     </row>
     <row r="29" customFormat="false" ht="246.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="28" t="s">
@@ -30634,7 +30628,7 @@
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -31654,16 +31648,16 @@
     </row>
     <row r="30" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="28" t="s">
@@ -31671,7 +31665,7 @@
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -33717,7 +33711,7 @@
     </row>
     <row r="32" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -33733,18 +33727,18 @@
         <v>61</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34765,22 +34759,22 @@
     <row r="34" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
       <c r="I34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35801,22 +35795,22 @@
     <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
       <c r="I35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36837,22 +36831,22 @@
     <row r="36" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37873,22 +37867,22 @@
     <row r="37" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="I37" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38909,22 +38903,22 @@
     <row r="38" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
       <c r="I38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39945,22 +39939,22 @@
     <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
       <c r="I39" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40981,24 +40975,24 @@
     <row r="40" customFormat="false" ht="82.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
       <c r="B40" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H40" s="0"/>
       <c r="I40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -42018,22 +42012,22 @@
     </row>
     <row r="41" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="G41" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43064,7 +43058,7 @@
     </row>
     <row r="43" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -43080,16 +43074,16 @@
         <v>52</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
       <c r="I44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -44110,22 +44104,22 @@
     <row r="45" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
       <c r="B45" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
       <c r="I45" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -45146,22 +45140,22 @@
     <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
       <c r="B46" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
       <c r="I46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -46182,22 +46176,22 @@
     <row r="47" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
       <c r="B47" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
       <c r="I47" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -47218,22 +47212,22 @@
     <row r="48" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
       <c r="B48" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
       <c r="I48" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -48254,22 +48248,22 @@
     <row r="49" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
       <c r="I49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
@@ -49290,22 +49284,22 @@
     <row r="50" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
       <c r="B50" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
       <c r="H50" s="0"/>
       <c r="I50" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
@@ -50326,22 +50320,22 @@
     <row r="51" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
       <c r="B51" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
       <c r="I51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
@@ -51362,22 +51356,22 @@
     <row r="52" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
       <c r="B52" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
       <c r="I52" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
@@ -52397,40 +52391,40 @@
     </row>
     <row r="53" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="28"/>
       <c r="I53" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="158.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="28"/>
       <c r="H54" s="0"/>
       <c r="I54" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
@@ -54476,7 +54470,7 @@
     </row>
     <row r="56" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -54492,16 +54486,16 @@
         <v>61</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0"/>
       <c r="H57" s="0"/>
       <c r="I57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J57" s="0"/>
       <c r="K57" s="0"/>
@@ -55522,22 +55516,22 @@
     <row r="58" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
       <c r="B58" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="0"/>
       <c r="H58" s="0"/>
       <c r="I58" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J58" s="0"/>
       <c r="K58" s="0"/>
@@ -56558,22 +56552,22 @@
     <row r="59" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
       <c r="B59" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
       <c r="I59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
@@ -57594,22 +57588,22 @@
     <row r="60" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
       <c r="B60" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F60" s="0"/>
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
       <c r="I60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J60" s="0"/>
       <c r="K60" s="0"/>
@@ -58630,24 +58624,24 @@
     <row r="61" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
       <c r="B61" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="0"/>
       <c r="G61" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H61" s="0"/>
       <c r="I61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J61" s="0"/>
       <c r="K61" s="0"/>
@@ -59668,24 +59662,24 @@
     <row r="62" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
       <c r="B62" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="0"/>
       <c r="G62" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H62" s="0"/>
       <c r="I62" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J62" s="0"/>
       <c r="K62" s="0"/>
@@ -60706,24 +60700,24 @@
     <row r="63" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
       <c r="B63" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F63" s="0"/>
       <c r="G63" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H63" s="0"/>
       <c r="I63" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J63" s="0"/>
       <c r="K63" s="0"/>
@@ -61744,24 +61738,24 @@
     <row r="64" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
       <c r="B64" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F64" s="0"/>
       <c r="G64" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H64" s="0"/>
       <c r="I64" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J64" s="0"/>
       <c r="K64" s="0"/>
@@ -62782,24 +62776,24 @@
     <row r="65" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
       <c r="B65" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F65" s="0"/>
       <c r="G65" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H65" s="0"/>
       <c r="I65" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J65" s="0"/>
       <c r="K65" s="0"/>
@@ -63819,22 +63813,22 @@
     </row>
     <row r="66" customFormat="false" ht="62.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E66" s="19" t="s">
-        <v>256</v>
-      </c>
       <c r="G66" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64865,7 +64859,7 @@
     </row>
     <row r="68" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -64881,16 +64875,16 @@
         <v>52</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
       <c r="I69" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J69" s="0"/>
       <c r="K69" s="0"/>
@@ -65911,22 +65905,22 @@
     <row r="70" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
       <c r="B70" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
       <c r="I70" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J70" s="0"/>
       <c r="K70" s="0"/>
@@ -66947,22 +66941,22 @@
     <row r="71" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
       <c r="B71" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
       <c r="I71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -67983,22 +67977,22 @@
     <row r="72" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
       <c r="B72" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
       <c r="I72" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J72" s="0"/>
       <c r="K72" s="0"/>
@@ -69019,22 +69013,22 @@
     <row r="73" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
       <c r="B73" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
       <c r="I73" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J73" s="0"/>
       <c r="K73" s="0"/>
@@ -70055,22 +70049,22 @@
     <row r="74" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
       <c r="B74" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F74" s="0"/>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
       <c r="I74" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J74" s="0"/>
       <c r="K74" s="0"/>
@@ -71090,40 +71084,40 @@
     </row>
     <row r="75" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G75" s="28"/>
       <c r="I75" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F76" s="0"/>
       <c r="G76" s="28"/>
       <c r="H76" s="0"/>
       <c r="I76" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J76" s="0"/>
       <c r="K76" s="0"/>
@@ -73169,7 +73163,7 @@
     </row>
     <row r="78" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -73183,14 +73177,14 @@
         <v>61</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G79" s="28"/>
       <c r="I79" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74220,7 +74214,7 @@
     </row>
     <row r="81" s="20" customFormat="true" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -74237,14 +74231,14 @@
         <v>61</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G82" s="28"/>
       <c r="I82" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
